--- a/docs/mobile-attack-v13.0/mobile-attack-v13.0-techniques.xlsx
+++ b/docs/mobile-attack-v13.0/mobile-attack-v13.0-techniques.xlsx
@@ -2140,49 +2140,49 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Threat Fabric Exobot),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: cyble_drinik_1022),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2191,82 +2191,82 @@
     <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: HackerNews-Allwinner),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: Talos GPlayed),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Anubis),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Cylance Dust Storm),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: nccgroup_sharkbot_0322),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Anubis),(Citation: Symantec GoldenCup),(Citation: CheckPoint-Judy),(Citation: BlackBerry Bahamut),(Citation: Xiao-ZergHelper),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: proofpoint_flubot_0421),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Xiao-ZergHelper),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Proofpoint-Marcher),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: CheckPoint SimBad 2019),(Citation: Wandera-RedDrop),(Citation: Lookout-BrainTest),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),(Citation: Google Triada June 2019),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingWhale),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Agent Smith),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: Group IB Gustuff Mar 2019),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Dendroid),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-Xbot),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: ArsTechnica-HummingBad),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2275,127 +2275,127 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Google Security Zen),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: CheckPoint Cerberus),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-WUC),(Citation: Lookout eSurv),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: CrowdStrike-Android),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: CheckPoint-Charger),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Kaspersky-Skygofree),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CrowdStrike-Android),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout-Pegasus),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: Lookout-BrainTest),(Citation: Volexity Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-WireLurker),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-Obad),(Citation: Securelist Asacub),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-Obad),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: Microsoft MalLockerB),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: Check Point-Joker),(Citation: PaloAlto-WireLurker),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: bitdefender_flubot_0524),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-WUC),(Citation: Tripwire-MazarBOT),(Citation: FireEye-RuMMS),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: Kaspersky Triada March 2016),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Cybereason EventBot),(Citation: Cylance Dust Storm),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: cloudmark_tanglebot_0921),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Cylance Dust Storm),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada March 2016),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: Securelist Asacub),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Kaspersky-WUC),(Citation: TrendMicro-XLoader),(Citation: PaloAlto-Xbot),(Citation: proofpoint_flubot_0421),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: cleafy_sova_1122),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
+    <t>(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Lookout FrozenCell),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-RCSAndroid),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: FortiGuard-FlexiSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: CheckPoint SimBad 2019),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout eSurv),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-DualToy),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: FireEye-RuMMS),(Citation: Cybereason FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: Lookout ViperRAT),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Group IB Gustuff Mar 2019),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Zscaler TikTok Spyware),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: Securelist Asacub),(Citation: Xiao-KeyRaider),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Kaspersky-WUC),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: PaloAlto-SpyDealer),(Citation: Google Bread),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: PaloAlto-DualToy),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: Volexity Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-MobileMalware),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: proofpoint_flubot_0421),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: ESET DEFENSOR ID),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Kaspersky-WUC),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-MobileMalware),</t>
   </si>
   <si>
     <t>source ID</t>
